--- a/natmiOut/OldD0/LR-pairs_lrc2p/Wnt2b-Fzd4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Wnt2b-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.55096429074825</v>
+        <v>2.045113666666667</v>
       </c>
       <c r="H2">
-        <v>1.55096429074825</v>
+        <v>6.135341</v>
       </c>
       <c r="I2">
-        <v>0.3000370939321554</v>
+        <v>0.3607891451960052</v>
       </c>
       <c r="J2">
-        <v>0.3000370939321554</v>
+        <v>0.3607891451960052</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>19.6773167557016</v>
+        <v>13.57958433333333</v>
       </c>
       <c r="N2">
-        <v>19.6773167557016</v>
+        <v>40.738753</v>
       </c>
       <c r="O2">
-        <v>0.434522630256775</v>
+        <v>0.2289698008477291</v>
       </c>
       <c r="P2">
-        <v>0.434522630256775</v>
+        <v>0.2289698008477291</v>
       </c>
       <c r="Q2">
-        <v>30.51881562583539</v>
+        <v>27.77179350775256</v>
       </c>
       <c r="R2">
-        <v>30.51881562583539</v>
+        <v>249.946141569773</v>
       </c>
       <c r="S2">
-        <v>0.1303729072299992</v>
+        <v>0.08260981872355172</v>
       </c>
       <c r="T2">
-        <v>0.1303729072299992</v>
+        <v>0.08260981872355172</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.55096429074825</v>
+        <v>2.045113666666667</v>
       </c>
       <c r="H3">
-        <v>1.55096429074825</v>
+        <v>6.135341</v>
       </c>
       <c r="I3">
-        <v>0.3000370939321554</v>
+        <v>0.3607891451960052</v>
       </c>
       <c r="J3">
-        <v>0.3000370939321554</v>
+        <v>0.3607891451960052</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.6075899108938</v>
+        <v>19.768727</v>
       </c>
       <c r="N3">
-        <v>25.6075899108938</v>
+        <v>59.306181</v>
       </c>
       <c r="O3">
-        <v>0.5654773697432249</v>
+        <v>0.3333269541315948</v>
       </c>
       <c r="P3">
-        <v>0.5654773697432249</v>
+        <v>0.3333269541315948</v>
       </c>
       <c r="Q3">
-        <v>39.71645752392144</v>
+        <v>40.42929376030234</v>
       </c>
       <c r="R3">
-        <v>39.71645752392144</v>
+        <v>363.863643842721</v>
       </c>
       <c r="S3">
-        <v>0.1696641867021561</v>
+        <v>0.1202607468519261</v>
       </c>
       <c r="T3">
-        <v>0.1696641867021561</v>
+        <v>0.1202607468519261</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.86887429673694</v>
+        <v>2.045113666666667</v>
       </c>
       <c r="H4">
-        <v>1.86887429673694</v>
+        <v>6.135341</v>
       </c>
       <c r="I4">
-        <v>0.3615374101533516</v>
+        <v>0.3607891451960052</v>
       </c>
       <c r="J4">
-        <v>0.3615374101533516</v>
+        <v>0.3607891451960052</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.6773167557016</v>
+        <v>25.95900466666667</v>
       </c>
       <c r="N4">
-        <v>19.6773167557016</v>
+        <v>77.877014</v>
       </c>
       <c r="O4">
-        <v>0.434522630256775</v>
+        <v>0.4377032450206762</v>
       </c>
       <c r="P4">
-        <v>0.434522630256775</v>
+        <v>0.4377032450206762</v>
       </c>
       <c r="Q4">
-        <v>36.77443151348184</v>
+        <v>53.08911521686379</v>
       </c>
       <c r="R4">
-        <v>36.77443151348184</v>
+        <v>477.802036951774</v>
       </c>
       <c r="S4">
-        <v>0.1570961863960568</v>
+        <v>0.1579185796205274</v>
       </c>
       <c r="T4">
-        <v>0.1570961863960568</v>
+        <v>0.1579185796205274</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.86887429673694</v>
+        <v>1.870396</v>
       </c>
       <c r="H5">
-        <v>1.86887429673694</v>
+        <v>5.611188</v>
       </c>
       <c r="I5">
-        <v>0.3615374101533516</v>
+        <v>0.3299662923469261</v>
       </c>
       <c r="J5">
-        <v>0.3615374101533516</v>
+        <v>0.3299662923469261</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>25.6075899108938</v>
+        <v>13.57958433333333</v>
       </c>
       <c r="N5">
-        <v>25.6075899108938</v>
+        <v>40.738753</v>
       </c>
       <c r="O5">
-        <v>0.5654773697432249</v>
+        <v>0.2289698008477291</v>
       </c>
       <c r="P5">
-        <v>0.5654773697432249</v>
+        <v>0.2289698008477291</v>
       </c>
       <c r="Q5">
-        <v>47.85736658584961</v>
+        <v>25.39920021872934</v>
       </c>
       <c r="R5">
-        <v>47.85736658584961</v>
+        <v>228.592801968564</v>
       </c>
       <c r="S5">
-        <v>0.2044412237572948</v>
+        <v>0.07555231624513922</v>
       </c>
       <c r="T5">
-        <v>0.2044412237572948</v>
+        <v>0.07555231624513922</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.74940322332556</v>
+        <v>1.870396</v>
       </c>
       <c r="H6">
-        <v>1.74940322332556</v>
+        <v>5.611188</v>
       </c>
       <c r="I6">
-        <v>0.3384254959144931</v>
+        <v>0.3299662923469261</v>
       </c>
       <c r="J6">
-        <v>0.3384254959144931</v>
+        <v>0.3299662923469261</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.6773167557016</v>
+        <v>19.768727</v>
       </c>
       <c r="N6">
-        <v>19.6773167557016</v>
+        <v>59.306181</v>
       </c>
       <c r="O6">
-        <v>0.434522630256775</v>
+        <v>0.3333269541315948</v>
       </c>
       <c r="P6">
-        <v>0.434522630256775</v>
+        <v>0.3333269541315948</v>
       </c>
       <c r="Q6">
-        <v>34.42356135882243</v>
+        <v>36.975347905892</v>
       </c>
       <c r="R6">
-        <v>34.42356135882243</v>
+        <v>332.778131153028</v>
       </c>
       <c r="S6">
-        <v>0.147053536630719</v>
+        <v>0.1099866591940963</v>
       </c>
       <c r="T6">
-        <v>0.147053536630719</v>
+        <v>0.1099866591940963</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.74940322332556</v>
+        <v>1.870396</v>
       </c>
       <c r="H7">
-        <v>1.74940322332556</v>
+        <v>5.611188</v>
       </c>
       <c r="I7">
-        <v>0.3384254959144931</v>
+        <v>0.3299662923469261</v>
       </c>
       <c r="J7">
-        <v>0.3384254959144931</v>
+        <v>0.3299662923469261</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.6075899108938</v>
+        <v>25.95900466666667</v>
       </c>
       <c r="N7">
-        <v>25.6075899108938</v>
+        <v>77.877014</v>
       </c>
       <c r="O7">
-        <v>0.5654773697432249</v>
+        <v>0.4377032450206762</v>
       </c>
       <c r="P7">
-        <v>0.5654773697432249</v>
+        <v>0.4377032450206762</v>
       </c>
       <c r="Q7">
-        <v>44.79800033171671</v>
+        <v>48.55361849251467</v>
       </c>
       <c r="R7">
-        <v>44.79800033171671</v>
+        <v>436.982566432632</v>
       </c>
       <c r="S7">
-        <v>0.191371959283774</v>
+        <v>0.1444273169076907</v>
       </c>
       <c r="T7">
-        <v>0.191371959283774</v>
+        <v>0.1444273169076907</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.752936</v>
+      </c>
+      <c r="H8">
+        <v>5.258808</v>
+      </c>
+      <c r="I8">
+        <v>0.3092445624570686</v>
+      </c>
+      <c r="J8">
+        <v>0.3092445624570686</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>13.57958433333333</v>
+      </c>
+      <c r="N8">
+        <v>40.738753</v>
+      </c>
+      <c r="O8">
+        <v>0.2289698008477291</v>
+      </c>
+      <c r="P8">
+        <v>0.2289698008477291</v>
+      </c>
+      <c r="Q8">
+        <v>23.804142242936</v>
+      </c>
+      <c r="R8">
+        <v>214.237280186424</v>
+      </c>
+      <c r="S8">
+        <v>0.07080766587903811</v>
+      </c>
+      <c r="T8">
+        <v>0.07080766587903811</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.752936</v>
+      </c>
+      <c r="H9">
+        <v>5.258808</v>
+      </c>
+      <c r="I9">
+        <v>0.3092445624570686</v>
+      </c>
+      <c r="J9">
+        <v>0.3092445624570686</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>19.768727</v>
+      </c>
+      <c r="N9">
+        <v>59.306181</v>
+      </c>
+      <c r="O9">
+        <v>0.3333269541315948</v>
+      </c>
+      <c r="P9">
+        <v>0.3333269541315948</v>
+      </c>
+      <c r="Q9">
+        <v>34.653313232472</v>
+      </c>
+      <c r="R9">
+        <v>311.879819092248</v>
+      </c>
+      <c r="S9">
+        <v>0.1030795480855724</v>
+      </c>
+      <c r="T9">
+        <v>0.1030795480855724</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.752936</v>
+      </c>
+      <c r="H10">
+        <v>5.258808</v>
+      </c>
+      <c r="I10">
+        <v>0.3092445624570686</v>
+      </c>
+      <c r="J10">
+        <v>0.3092445624570686</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>25.95900466666667</v>
+      </c>
+      <c r="N10">
+        <v>77.877014</v>
+      </c>
+      <c r="O10">
+        <v>0.4377032450206762</v>
+      </c>
+      <c r="P10">
+        <v>0.4377032450206762</v>
+      </c>
+      <c r="Q10">
+        <v>45.504473804368</v>
+      </c>
+      <c r="R10">
+        <v>409.540264239312</v>
+      </c>
+      <c r="S10">
+        <v>0.1353573484924581</v>
+      </c>
+      <c r="T10">
+        <v>0.1353573484924581</v>
       </c>
     </row>
   </sheetData>
